--- a/AAII_Financials/Yearly/SICP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SICP_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/SICP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SICP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>SICP</t>
   </si>
@@ -1018,22 +1018,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>91000</v>
+        <v>88000</v>
       </c>
       <c r="E21" s="3">
-        <v>33900</v>
+        <v>36800</v>
       </c>
       <c r="F21" s="3">
-        <v>35900</v>
+        <v>37300</v>
       </c>
       <c r="G21" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="H21" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>15500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>12700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -2510,22 +2510,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>5600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2672,22 +2672,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-479300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-126900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2712,22 +2712,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2793,22 +2793,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7983500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-70600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-574500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-206600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-125000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-70300</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2941,22 +2941,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10329600</v>
+      </c>
+      <c r="E100" s="3">
         <v>3378400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>160500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>86500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>906100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>20400</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -2985,8 +2985,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2995,22 +2995,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2425900</v>
+      </c>
+      <c r="E102" s="3">
         <v>2828500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-540800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-123200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>763000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
